--- a/student_schedule/2025春期講習日程(高校生)  (1).xlsx
+++ b/student_schedule/2025春期講習日程(高校生)  (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="850" activeTab="6"/>
+    <workbookView windowWidth="13200" windowHeight="11460" tabRatio="850" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="生徒用" sheetId="2" r:id="rId1"/>
@@ -8458,8 +8458,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
